--- a/Parametric/ParametricQuickExamples.xlsx
+++ b/Parametric/ParametricQuickExamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Simulations\SwarmSimulation\Parametric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295C99D1-C18B-4F5E-BF66-6B0EE3C232CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA7FB9B-2B0E-4EC6-A153-296ECED6839E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1215" windowWidth="22440" windowHeight="19290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12945" yWindow="750" windowWidth="34290" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Flow</t>
   </si>
@@ -44,6 +44,36 @@
   </si>
   <si>
     <t>Percent</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>(Just one try for demo)</t>
+  </si>
+  <si>
+    <t>V4 3 tries demo</t>
+  </si>
+  <si>
+    <t>Try1</t>
+  </si>
+  <si>
+    <t>Try2</t>
+  </si>
+  <si>
+    <t>Try3</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>m-m</t>
   </si>
 </sst>
 </file>
@@ -411,7 +441,2006 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$35:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54D5-4911-B545-3A375014802D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="485480016"/>
+        <c:axId val="485479600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="485480016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485479600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="485479600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485480016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$35:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>31.149000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.193000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5170000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AAA9-49B4-8835-2FD998633CE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="418138480"/>
+        <c:axId val="418136400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="418138480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418136400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="418136400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418138480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Percent</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$66:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$66:$H$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>99.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.666666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-701D-4E84-9737-64A2244A34D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1194516432"/>
+        <c:axId val="1194507696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1194516432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1194507696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1194507696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1194516432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Max</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$66:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$66:$L$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE68-40B4-B0EC-E78EC8638536}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1828153984"/>
+        <c:axId val="1828158976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1828153984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1828158976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1828158976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1828153984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Min</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40949300087489071"/>
+          <c:y val="1.3888888888888888E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$66:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$66:$J$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5F8-4CD4-8733-FC1997E9772D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1954787200"/>
+        <c:axId val="1954776800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1954787200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1954776800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1954776800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1954787200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -967,6 +2996,2586 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1000,6 +5609,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0752ACF-67EB-0FC6-D61B-253BB99B6D61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00922441-8A8A-8CE3-5C16-596731EC7F39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FCE8BD-F576-FDF8-C386-482C7FFC0DA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162BAF09-7C6C-C2E9-769F-E42819E5B3F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8571763F-9011-97CF-C6A4-E83843150B22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1271,10 +6060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="AG80" sqref="AG80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,6 +6433,490 @@
         <v>92</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1E-3</v>
+      </c>
+      <c r="B35">
+        <v>98</v>
+      </c>
+      <c r="C35">
+        <v>31.149000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="B36">
+        <v>96</v>
+      </c>
+      <c r="C36">
+        <v>27.901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B37">
+        <v>92</v>
+      </c>
+      <c r="C37">
+        <v>22.193000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.01</v>
+      </c>
+      <c r="B38">
+        <v>76</v>
+      </c>
+      <c r="C38">
+        <v>25.995000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>7.5170000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64" t="s">
+        <v>11</v>
+      </c>
+      <c r="N64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1E-3</v>
+      </c>
+      <c r="B66">
+        <v>98</v>
+      </c>
+      <c r="C66">
+        <v>31.149000000000001</v>
+      </c>
+      <c r="D66">
+        <v>100</v>
+      </c>
+      <c r="E66">
+        <v>18.530999999999999</v>
+      </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
+      <c r="G66">
+        <v>12.406000000000001</v>
+      </c>
+      <c r="H66">
+        <f>AVERAGE(B66,D66,F66)</f>
+        <v>99.333333333333329</v>
+      </c>
+      <c r="I66">
+        <f>AVERAGE(C66,E66,G66)</f>
+        <v>20.695333333333334</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:J72" si="0">MIN(B66,D66,F66)</f>
+        <v>98</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ref="K66:K72" si="1">MIN(C66,E66,G66)</f>
+        <v>12.406000000000001</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ref="L66:L72" si="2">MAX(B66,D66,F66)</f>
+        <v>100</v>
+      </c>
+      <c r="M66">
+        <f t="shared" ref="M66:M72" si="3">MAX(C66,E66,G66)</f>
+        <v>31.149000000000001</v>
+      </c>
+      <c r="N66">
+        <f>L66-J66</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="B67">
+        <v>96</v>
+      </c>
+      <c r="C67">
+        <v>27.901</v>
+      </c>
+      <c r="D67">
+        <v>92</v>
+      </c>
+      <c r="E67">
+        <v>11.504</v>
+      </c>
+      <c r="F67">
+        <v>98</v>
+      </c>
+      <c r="G67">
+        <v>12.337999999999999</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H72" si="4">AVERAGE(B67,D67,F67)</f>
+        <v>95.333333333333329</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I72" si="5">AVERAGE(C67,E67,G67)</f>
+        <v>17.247666666666667</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="1"/>
+        <v>11.504</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="3"/>
+        <v>27.901</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N72" si="6">L67-J67</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B68">
+        <v>92</v>
+      </c>
+      <c r="C68">
+        <v>22.193000000000001</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="E68">
+        <v>15.522</v>
+      </c>
+      <c r="F68">
+        <v>98</v>
+      </c>
+      <c r="G68">
+        <v>37.432000000000002</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="4"/>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="5"/>
+        <v>25.049000000000003</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="1"/>
+        <v>15.522</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="3"/>
+        <v>37.432000000000002</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.01</v>
+      </c>
+      <c r="B69">
+        <v>76</v>
+      </c>
+      <c r="C69">
+        <v>25.995000000000001</v>
+      </c>
+      <c r="D69">
+        <v>86</v>
+      </c>
+      <c r="E69">
+        <v>17.638000000000002</v>
+      </c>
+      <c r="F69">
+        <v>96</v>
+      </c>
+      <c r="G69">
+        <v>33.241999999999997</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>25.625</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="1"/>
+        <v>17.638000000000002</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="3"/>
+        <v>33.241999999999997</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="B70">
+        <v>72</v>
+      </c>
+      <c r="C70">
+        <v>24.286999999999999</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>16.364999999999998</v>
+      </c>
+      <c r="F70">
+        <v>82</v>
+      </c>
+      <c r="G70">
+        <v>52.552</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="4"/>
+        <v>54.666666666666664</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="5"/>
+        <v>31.068000000000001</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="1"/>
+        <v>16.364999999999998</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="3"/>
+        <v>52.552</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.02</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>49.353999999999999</v>
+      </c>
+      <c r="D71">
+        <v>60</v>
+      </c>
+      <c r="E71">
+        <v>12.147</v>
+      </c>
+      <c r="F71">
+        <v>20</v>
+      </c>
+      <c r="G71">
+        <v>8.9329999999999998</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="4"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="5"/>
+        <v>23.477999999999998</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="1"/>
+        <v>8.9329999999999998</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="3"/>
+        <v>49.353999999999999</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B72">
+        <v>14</v>
+      </c>
+      <c r="C72">
+        <v>7.5170000000000003</v>
+      </c>
+      <c r="D72">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>13.644</v>
+      </c>
+      <c r="F72">
+        <v>16</v>
+      </c>
+      <c r="G72">
+        <v>25.077000000000002</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="4"/>
+        <v>12.666666666666666</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="5"/>
+        <v>15.412666666666667</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="1"/>
+        <v>7.5170000000000003</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="3"/>
+        <v>25.077000000000002</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Parametric/ParametricQuickExamples.xlsx
+++ b/Parametric/ParametricQuickExamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Simulations\SwarmSimulation\Parametric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA7FB9B-2B0E-4EC6-A153-296ECED6839E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C95752-81D7-41B7-A48D-1D6E2E74F439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12945" yWindow="750" windowWidth="34290" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48150" yWindow="-915" windowWidth="19950" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="22">
   <si>
     <t>Flow</t>
   </si>
@@ -75,6 +75,33 @@
   <si>
     <t>m-m</t>
   </si>
+  <si>
+    <t>ParticleSize</t>
+  </si>
+  <si>
+    <t>MagForce</t>
+  </si>
+  <si>
+    <t>0Flow</t>
+  </si>
+  <si>
+    <t>0.01Flow</t>
+  </si>
+  <si>
+    <t>StandardError</t>
+  </si>
+  <si>
+    <t>NoControl</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Avg%</t>
+  </si>
+  <si>
+    <t>AvgTime</t>
+  </si>
 </sst>
 </file>
 
@@ -97,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,12 +132,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1339,7 +1378,7 @@
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.666666666666664</c:v>
+                  <c:v>59.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>33.333333333333336</c:v>
@@ -1683,7 +1722,7 @@
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>60</c:v>
@@ -2035,7 +2074,7 @@
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20</c:v>
@@ -2185,6 +2224,949 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1954787200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$85:$A$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$85:$H$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>69.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.666666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B50-4592-9DB2-B46610696B48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1122818143"/>
+        <c:axId val="1122806079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1122818143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122806079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1122806079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122818143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$95:$B$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$95:$M$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2B4-4B41-8C33-67991D32D7B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1278446735"/>
+        <c:axId val="1278431759"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1278446735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1278431759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1278431759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1278446735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$99:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$99:$M$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEC4-4DED-97E6-3AD7AC9A9519}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1620143071"/>
+        <c:axId val="1620152223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1620143071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620152223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1620152223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620143071"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2480,6 +3462,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5061,6 +6163,1554 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5794,6 +8444,114 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09868F5-237A-53C8-C37B-D8EC10802079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9420390C-449A-59C4-C973-3A04F62336F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1128660C-2367-93C7-6D9A-0894FC118631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6060,10 +8818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="AG80" sqref="AG80"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6769,50 +9527,50 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="B70">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C70">
-        <v>24.286999999999999</v>
+        <v>14.064</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E70">
-        <v>16.364999999999998</v>
+        <v>8.8249999999999993</v>
       </c>
       <c r="F70">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G70">
-        <v>52.552</v>
+        <v>27.114999999999998</v>
       </c>
       <c r="H70">
         <f t="shared" si="4"/>
-        <v>54.666666666666664</v>
+        <v>59.333333333333336</v>
       </c>
       <c r="I70">
         <f t="shared" si="5"/>
-        <v>31.068000000000001</v>
+        <v>16.667999999999999</v>
       </c>
       <c r="J70">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="K70">
         <f t="shared" si="1"/>
-        <v>16.364999999999998</v>
+        <v>8.8249999999999993</v>
       </c>
       <c r="L70">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="M70">
         <f t="shared" si="3"/>
-        <v>52.552</v>
+        <v>27.114999999999998</v>
       </c>
       <c r="N70">
         <f t="shared" si="6"/>
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -6917,8 +9675,1293 @@
         <v>8</v>
       </c>
     </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>38</v>
+      </c>
+      <c r="C80">
+        <v>28.629000000000001</v>
+      </c>
+      <c r="D80">
+        <f>AVERAGE(B80:B82)</f>
+        <v>29.333333333333332</v>
+      </c>
+      <c r="E80">
+        <f>AVERAGE(C80:C82)</f>
+        <v>28.329666666666668</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>26</v>
+      </c>
+      <c r="C81">
+        <v>29.501000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>24</v>
+      </c>
+      <c r="C82">
+        <v>26.859000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>50</v>
+      </c>
+      <c r="B85" s="2">
+        <v>70</v>
+      </c>
+      <c r="C85" s="2">
+        <v>10.262</v>
+      </c>
+      <c r="D85" s="2">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>13.247</v>
+      </c>
+      <c r="F85" s="2">
+        <v>74</v>
+      </c>
+      <c r="G85" s="2">
+        <v>13.048999999999999</v>
+      </c>
+      <c r="H85">
+        <f>AVERAGE(D85,F85,B85)</f>
+        <v>69.333333333333329</v>
+      </c>
+      <c r="I85">
+        <f>MIN(B85,D85,F85)</f>
+        <v>64</v>
+      </c>
+      <c r="J85">
+        <f>MAX(B85,D85,F85)</f>
+        <v>74</v>
+      </c>
+      <c r="K85">
+        <f>STDEV(B85,D85,F85)/SQRT(COUNT(B85,D85,F85))</f>
+        <v>2.9059326290271157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>75</v>
+      </c>
+      <c r="B86" s="2">
+        <v>68</v>
+      </c>
+      <c r="C86" s="2">
+        <v>10.018000000000001</v>
+      </c>
+      <c r="D86" s="2">
+        <v>88</v>
+      </c>
+      <c r="E86" s="2">
+        <v>12.93</v>
+      </c>
+      <c r="F86" s="2">
+        <v>86</v>
+      </c>
+      <c r="G86" s="2">
+        <v>10.284000000000001</v>
+      </c>
+      <c r="H86">
+        <f>AVERAGE(D86,F86,B86)</f>
+        <v>80.666666666666671</v>
+      </c>
+      <c r="I86">
+        <f>MIN(B86,D86,F86)</f>
+        <v>68</v>
+      </c>
+      <c r="J86">
+        <f>MAX(B86,D86,F86)</f>
+        <v>88</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ref="K86:K91" si="7">STDEV(B86,D86,F86)/SQRT(COUNT(B86,D86,F86))</f>
+        <v>6.3595946761129865</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>100</v>
+      </c>
+      <c r="B87" s="2">
+        <v>84</v>
+      </c>
+      <c r="C87" s="2">
+        <v>13.644</v>
+      </c>
+      <c r="D87" s="2">
+        <v>86</v>
+      </c>
+      <c r="E87" s="2">
+        <v>13.526999999999999</v>
+      </c>
+      <c r="F87" s="2">
+        <v>68</v>
+      </c>
+      <c r="G87" s="2">
+        <v>11.122999999999999</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ref="H87:H91" si="8">AVERAGE(D87,F87,B87)</f>
+        <v>79.333333333333329</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ref="I87:I91" si="9">MIN(B87,D87,F87)</f>
+        <v>68</v>
+      </c>
+      <c r="J87">
+        <f t="shared" ref="J87:J91" si="10">MAX(B87,D87,F87)</f>
+        <v>86</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="7"/>
+        <v>5.6960024968783722</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>125</v>
+      </c>
+      <c r="B88" s="2">
+        <v>70</v>
+      </c>
+      <c r="C88" s="2">
+        <v>15.254</v>
+      </c>
+      <c r="D88" s="2">
+        <v>70</v>
+      </c>
+      <c r="E88" s="2">
+        <v>15.132</v>
+      </c>
+      <c r="F88" s="2">
+        <v>72</v>
+      </c>
+      <c r="G88" s="2">
+        <v>10.666</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="8"/>
+        <v>70.666666666666671</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>150</v>
+      </c>
+      <c r="B89" s="2">
+        <v>62</v>
+      </c>
+      <c r="C89" s="2">
+        <v>18.178000000000001</v>
+      </c>
+      <c r="D89" s="2">
+        <v>84</v>
+      </c>
+      <c r="E89" s="2">
+        <v>9.3539999999999992</v>
+      </c>
+      <c r="F89" s="2">
+        <v>60</v>
+      </c>
+      <c r="G89" s="2">
+        <v>13.026999999999999</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="8"/>
+        <v>68.666666666666671</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="7"/>
+        <v>7.6883750631138579</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>175</v>
+      </c>
+      <c r="B90" s="2">
+        <v>56</v>
+      </c>
+      <c r="C90" s="2">
+        <v>14.461</v>
+      </c>
+      <c r="D90" s="2">
+        <v>70</v>
+      </c>
+      <c r="E90" s="2">
+        <v>14.532999999999999</v>
+      </c>
+      <c r="F90" s="2">
+        <v>64</v>
+      </c>
+      <c r="G90" s="2">
+        <v>13.680999999999999</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="8"/>
+        <v>63.333333333333336</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="7"/>
+        <v>4.0551750201988135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>200</v>
+      </c>
+      <c r="B91" s="2">
+        <v>90</v>
+      </c>
+      <c r="C91" s="2">
+        <v>12.342000000000001</v>
+      </c>
+      <c r="D91" s="2">
+        <v>66</v>
+      </c>
+      <c r="E91" s="2">
+        <v>15.157</v>
+      </c>
+      <c r="F91" s="2">
+        <v>68</v>
+      </c>
+      <c r="G91" s="2">
+        <v>12.819000000000001</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="8"/>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="7"/>
+        <v>7.6883750631138774</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="M93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>2</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>2</v>
+      </c>
+      <c r="L94" t="s">
+        <v>1</v>
+      </c>
+      <c r="M94" t="s">
+        <v>9</v>
+      </c>
+      <c r="N94" t="s">
+        <v>10</v>
+      </c>
+      <c r="O94" t="s">
+        <v>11</v>
+      </c>
+      <c r="P94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>100</v>
+      </c>
+      <c r="D95" s="2">
+        <v>11.417999999999999</v>
+      </c>
+      <c r="E95" s="2">
+        <v>98</v>
+      </c>
+      <c r="F95" s="2">
+        <v>11.388</v>
+      </c>
+      <c r="G95" s="2">
+        <v>94</v>
+      </c>
+      <c r="H95">
+        <v>10.869</v>
+      </c>
+      <c r="I95">
+        <v>100</v>
+      </c>
+      <c r="J95">
+        <v>17.602</v>
+      </c>
+      <c r="K95">
+        <v>100</v>
+      </c>
+      <c r="L95">
+        <v>11.795999999999999</v>
+      </c>
+      <c r="M95">
+        <f>AVERAGE(C95,E95,G95,I95,K95)</f>
+        <v>98.4</v>
+      </c>
+      <c r="N95">
+        <f>MIN(C95,E95,G95,I95,K95)</f>
+        <v>94</v>
+      </c>
+      <c r="O95">
+        <f>MAX(C95,E95,G95,I95,K95)</f>
+        <v>100</v>
+      </c>
+      <c r="P95">
+        <f>STDEV(G95,I95,K95,C95,E95)/SQRT(COUNT(G95,I95,K95,C95,E95))</f>
+        <v>1.16619037896906</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C96" s="2">
+        <v>100</v>
+      </c>
+      <c r="D96" s="2">
+        <v>8.8209999999999997</v>
+      </c>
+      <c r="E96" s="2">
+        <v>100</v>
+      </c>
+      <c r="F96" s="2">
+        <v>7.6719999999999997</v>
+      </c>
+      <c r="G96" s="2">
+        <v>100</v>
+      </c>
+      <c r="H96">
+        <v>9.0519999999999996</v>
+      </c>
+      <c r="I96">
+        <v>100</v>
+      </c>
+      <c r="J96">
+        <v>9.4649999999999999</v>
+      </c>
+      <c r="K96">
+        <v>100</v>
+      </c>
+      <c r="L96">
+        <v>8.4670000000000005</v>
+      </c>
+      <c r="M96">
+        <f t="shared" ref="M96:M102" si="11">AVERAGE(C96,E96,G96,I96,K96)</f>
+        <v>100</v>
+      </c>
+      <c r="N96">
+        <f t="shared" ref="N96:N102" si="12">MIN(C96,E96,G96,I96,K96)</f>
+        <v>100</v>
+      </c>
+      <c r="O96">
+        <f t="shared" ref="O96:O102" si="13">MAX(C96,E96,G96,I96,K96)</f>
+        <v>100</v>
+      </c>
+      <c r="P96">
+        <f t="shared" ref="P96:P102" si="14">STDEV(G96,I96,K96,C96,E96)/SQRT(COUNT(G96,I96,K96,C96,E96))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2">
+        <v>100</v>
+      </c>
+      <c r="D97" s="2">
+        <v>6.585</v>
+      </c>
+      <c r="E97" s="2">
+        <v>98</v>
+      </c>
+      <c r="F97" s="2">
+        <v>6.2069999999999999</v>
+      </c>
+      <c r="G97" s="2">
+        <v>100</v>
+      </c>
+      <c r="H97">
+        <v>7.4169999999999998</v>
+      </c>
+      <c r="I97">
+        <v>98</v>
+      </c>
+      <c r="J97">
+        <v>6.657</v>
+      </c>
+      <c r="K97">
+        <v>98</v>
+      </c>
+      <c r="L97">
+        <v>7.0819999999999999</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="11"/>
+        <v>98.8</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="12"/>
+        <v>98</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="14"/>
+        <v>0.48989794855663554</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="C98" s="2">
+        <v>100</v>
+      </c>
+      <c r="D98" s="2">
+        <v>6.15</v>
+      </c>
+      <c r="E98" s="2">
+        <v>100</v>
+      </c>
+      <c r="F98" s="2">
+        <v>6.0720000000000001</v>
+      </c>
+      <c r="G98" s="2">
+        <v>100</v>
+      </c>
+      <c r="H98">
+        <v>6.0149999999999997</v>
+      </c>
+      <c r="I98">
+        <v>98</v>
+      </c>
+      <c r="J98">
+        <v>10.541</v>
+      </c>
+      <c r="K98">
+        <v>100</v>
+      </c>
+      <c r="L98">
+        <v>6.0819999999999999</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="11"/>
+        <v>99.6</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="12"/>
+        <v>98</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="14"/>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3">
+        <v>84</v>
+      </c>
+      <c r="D99" s="2">
+        <v>10.167</v>
+      </c>
+      <c r="E99" s="3">
+        <v>88</v>
+      </c>
+      <c r="F99" s="2">
+        <v>8.6010000000000009</v>
+      </c>
+      <c r="G99" s="3">
+        <v>100</v>
+      </c>
+      <c r="H99" s="1">
+        <v>9.8450000000000006</v>
+      </c>
+      <c r="I99" s="1">
+        <v>72</v>
+      </c>
+      <c r="J99" s="1">
+        <v>9.2789999999999999</v>
+      </c>
+      <c r="K99" s="1">
+        <v>84</v>
+      </c>
+      <c r="L99" s="1">
+        <v>10.067</v>
+      </c>
+      <c r="M99" s="1">
+        <f t="shared" si="11"/>
+        <v>85.6</v>
+      </c>
+      <c r="N99" s="1">
+        <f t="shared" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="O99" s="1">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="14"/>
+        <v>4.4899888641287138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C100" s="2">
+        <v>74</v>
+      </c>
+      <c r="D100" s="2">
+        <v>6.891</v>
+      </c>
+      <c r="E100" s="2">
+        <v>74</v>
+      </c>
+      <c r="F100" s="2">
+        <v>7.4619999999999997</v>
+      </c>
+      <c r="G100" s="2">
+        <v>96</v>
+      </c>
+      <c r="H100">
+        <v>10.612</v>
+      </c>
+      <c r="I100">
+        <v>94</v>
+      </c>
+      <c r="J100">
+        <v>7.5389999999999997</v>
+      </c>
+      <c r="K100">
+        <v>100</v>
+      </c>
+      <c r="L100">
+        <v>7.1749999999999998</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="11"/>
+        <v>87.6</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="14"/>
+        <v>5.6356011214421349</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2">
+        <v>2</v>
+      </c>
+      <c r="C101" s="2">
+        <v>98</v>
+      </c>
+      <c r="D101" s="2">
+        <v>7.1689999999999996</v>
+      </c>
+      <c r="E101" s="2">
+        <v>98</v>
+      </c>
+      <c r="F101" s="2">
+        <v>6.66</v>
+      </c>
+      <c r="G101" s="2">
+        <v>100</v>
+      </c>
+      <c r="H101">
+        <v>6.2409999999999997</v>
+      </c>
+      <c r="I101">
+        <v>98</v>
+      </c>
+      <c r="J101">
+        <v>6.226</v>
+      </c>
+      <c r="K101">
+        <v>100</v>
+      </c>
+      <c r="L101">
+        <v>6.0339999999999998</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="11"/>
+        <v>98.8</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="12"/>
+        <v>98</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="14"/>
+        <v>0.48989794855663554</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="C102" s="2">
+        <v>100</v>
+      </c>
+      <c r="D102" s="2">
+        <v>6.3719999999999999</v>
+      </c>
+      <c r="E102" s="2">
+        <v>92</v>
+      </c>
+      <c r="F102" s="2">
+        <v>6.5650000000000004</v>
+      </c>
+      <c r="G102" s="2">
+        <v>94</v>
+      </c>
+      <c r="H102">
+        <v>14.699</v>
+      </c>
+      <c r="I102">
+        <v>98</v>
+      </c>
+      <c r="J102">
+        <v>6.7850000000000001</v>
+      </c>
+      <c r="K102">
+        <v>98</v>
+      </c>
+      <c r="L102">
+        <v>5.5039999999999996</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="11"/>
+        <v>96.4</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="12"/>
+        <v>92</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="14"/>
+        <v>1.4696938456699069</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>2</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>2</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>2</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1</v>
+      </c>
+      <c r="L106" t="s">
+        <v>9</v>
+      </c>
+      <c r="M106" t="s">
+        <v>10</v>
+      </c>
+      <c r="N106" t="s">
+        <v>11</v>
+      </c>
+      <c r="O106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1E-3</v>
+      </c>
+      <c r="B107">
+        <v>98</v>
+      </c>
+      <c r="C107">
+        <v>31.149000000000001</v>
+      </c>
+      <c r="D107">
+        <v>100</v>
+      </c>
+      <c r="E107">
+        <v>18.530999999999999</v>
+      </c>
+      <c r="F107">
+        <v>100</v>
+      </c>
+      <c r="G107">
+        <v>12.406000000000001</v>
+      </c>
+      <c r="H107">
+        <v>100</v>
+      </c>
+      <c r="I107">
+        <v>13.188000000000001</v>
+      </c>
+      <c r="J107">
+        <v>100</v>
+      </c>
+      <c r="K107">
+        <v>13.532999999999999</v>
+      </c>
+      <c r="L107">
+        <f>AVERAGE(B107,D107,F107,H107,J107)</f>
+        <v>99.6</v>
+      </c>
+      <c r="M107">
+        <f>MIN(B107,D107,F107,H107,J107)</f>
+        <v>98</v>
+      </c>
+      <c r="N107">
+        <f>MAX(B107,D107,F107,H107,J107)</f>
+        <v>100</v>
+      </c>
+      <c r="O107">
+        <f>STDEV(F107,H107,J107,D107,B107)/SQRT(COUNT(F107,H107,J107,D107,B107))</f>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="B108">
+        <v>96</v>
+      </c>
+      <c r="C108">
+        <v>27.901</v>
+      </c>
+      <c r="D108">
+        <v>92</v>
+      </c>
+      <c r="E108">
+        <v>11.504</v>
+      </c>
+      <c r="F108">
+        <v>98</v>
+      </c>
+      <c r="G108">
+        <v>12.337999999999999</v>
+      </c>
+      <c r="H108">
+        <v>98</v>
+      </c>
+      <c r="I108">
+        <v>21.623999999999999</v>
+      </c>
+      <c r="J108">
+        <v>100</v>
+      </c>
+      <c r="K108">
+        <v>12.461</v>
+      </c>
+      <c r="L108">
+        <f t="shared" ref="L108:L113" si="15">AVERAGE(B108,D108,F108,H108,J108)</f>
+        <v>96.8</v>
+      </c>
+      <c r="M108">
+        <f t="shared" ref="M108:M113" si="16">MIN(B108,D108,F108,H108,J108)</f>
+        <v>92</v>
+      </c>
+      <c r="N108">
+        <f t="shared" ref="N108:N113" si="17">MAX(B108,D108,F108,H108,J108)</f>
+        <v>100</v>
+      </c>
+      <c r="O108">
+        <f t="shared" ref="O108:O113" si="18">STDEV(F108,H108,J108,D108,B108)/SQRT(COUNT(F108,H108,J108,D108,B108))</f>
+        <v>1.3564659966250534</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B109">
+        <v>92</v>
+      </c>
+      <c r="C109">
+        <v>22.193000000000001</v>
+      </c>
+      <c r="D109">
+        <v>100</v>
+      </c>
+      <c r="E109">
+        <v>15.522</v>
+      </c>
+      <c r="F109">
+        <v>98</v>
+      </c>
+      <c r="G109">
+        <v>37.432000000000002</v>
+      </c>
+      <c r="H109">
+        <v>98</v>
+      </c>
+      <c r="I109">
+        <v>13.78</v>
+      </c>
+      <c r="J109">
+        <v>100</v>
+      </c>
+      <c r="K109">
+        <v>12.12</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="15"/>
+        <v>97.6</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="16"/>
+        <v>92</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="18"/>
+        <v>1.4696938456699069</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0.01</v>
+      </c>
+      <c r="B110">
+        <v>76</v>
+      </c>
+      <c r="C110">
+        <v>25.995000000000001</v>
+      </c>
+      <c r="D110">
+        <v>86</v>
+      </c>
+      <c r="E110">
+        <v>17.638000000000002</v>
+      </c>
+      <c r="F110">
+        <v>96</v>
+      </c>
+      <c r="G110">
+        <v>33.241999999999997</v>
+      </c>
+      <c r="H110" s="2">
+        <v>64</v>
+      </c>
+      <c r="I110">
+        <v>7.8780000000000001</v>
+      </c>
+      <c r="J110">
+        <v>92</v>
+      </c>
+      <c r="K110">
+        <v>10.500999999999999</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="15"/>
+        <v>82.8</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="16"/>
+        <v>64</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="17"/>
+        <v>96</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="18"/>
+        <v>5.7827329179203968</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="B111">
+        <v>52</v>
+      </c>
+      <c r="C111">
+        <v>14.064</v>
+      </c>
+      <c r="D111">
+        <v>62</v>
+      </c>
+      <c r="E111">
+        <v>8.8249999999999993</v>
+      </c>
+      <c r="F111">
+        <v>64</v>
+      </c>
+      <c r="G111">
+        <v>27.114999999999998</v>
+      </c>
+      <c r="H111" s="2">
+        <v>44</v>
+      </c>
+      <c r="I111">
+        <v>12.007999999999999</v>
+      </c>
+      <c r="J111" s="2">
+        <v>52</v>
+      </c>
+      <c r="K111">
+        <v>13.000999999999999</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="15"/>
+        <v>54.8</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="16"/>
+        <v>44</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="17"/>
+        <v>64</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="18"/>
+        <v>3.6660605559646666</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0.02</v>
+      </c>
+      <c r="B112">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>49.353999999999999</v>
+      </c>
+      <c r="D112">
+        <v>60</v>
+      </c>
+      <c r="E112">
+        <v>12.147</v>
+      </c>
+      <c r="F112">
+        <v>20</v>
+      </c>
+      <c r="G112">
+        <v>8.9329999999999998</v>
+      </c>
+      <c r="H112">
+        <v>34</v>
+      </c>
+      <c r="I112">
+        <v>7.9029999999999996</v>
+      </c>
+      <c r="J112" s="2">
+        <v>46</v>
+      </c>
+      <c r="K112">
+        <v>11.069000000000001</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="15"/>
+        <v>36</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="18"/>
+        <v>7.7201036262475125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B113">
+        <v>14</v>
+      </c>
+      <c r="C113">
+        <v>7.5170000000000003</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <v>13.644</v>
+      </c>
+      <c r="F113">
+        <v>16</v>
+      </c>
+      <c r="G113">
+        <v>25.077000000000002</v>
+      </c>
+      <c r="H113" s="2">
+        <v>34</v>
+      </c>
+      <c r="I113">
+        <v>9.577</v>
+      </c>
+      <c r="J113">
+        <v>22</v>
+      </c>
+      <c r="K113">
+        <v>5.59</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="15"/>
+        <v>18.8</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="17"/>
+        <v>34</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="18"/>
+        <v>4.4090815370097198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Parametric/ParametricQuickExamples.xlsx
+++ b/Parametric/ParametricQuickExamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Simulations\SwarmSimulation\Parametric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C95752-81D7-41B7-A48D-1D6E2E74F439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F799391D-116A-4D2E-A894-488196BDAF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48150" yWindow="-915" windowWidth="19950" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24255" yWindow="660" windowWidth="26955" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="22">
   <si>
     <t>Flow</t>
   </si>
@@ -124,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,15 +141,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,350 +1286,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Percent</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$66:$A$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$66:$H$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>99.333333333333329</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.333333333333329</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>96.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.666666666666666</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-701D-4E84-9737-64A2244A34D9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1194516432"/>
-        <c:axId val="1194507696"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1194516432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1194507696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1194507696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1194516432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
               <a:t>Max</a:t>
             </a:r>
           </a:p>
@@ -1927,1301 +1595,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Min</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.40949300087489071"/>
-          <c:y val="1.3888888888888888E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$66:$A$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$66:$J$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B5F8-4CD4-8733-FC1997E9772D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1954787200"/>
-        <c:axId val="1954776800"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1954787200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1954776800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1954776800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1954787200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$84</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$85:$A$91</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$85:$H$91</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>69.333333333333329</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>79.333333333333329</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>74.666666666666671</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9B50-4592-9DB2-B46610696B48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1122818143"/>
-        <c:axId val="1122806079"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1122818143"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1122806079"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1122806079"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1122818143"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$94</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$95:$B$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$M$95:$M$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>98.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E2B4-4B41-8C33-67991D32D7B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1278446735"/>
-        <c:axId val="1278431759"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1278446735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1278431759"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1278431759"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1278446735"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$99:$B$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$M$99:$M$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>85.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>96.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AEC4-4DED-97E6-3AD7AC9A9519}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1620143071"/>
-        <c:axId val="1620152223"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1620143071"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1620152223"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1620152223"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1620143071"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3382,206 +1755,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5131,2586 +3304,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8338,42 +3931,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FCE8BD-F576-FDF8-C386-482C7FFC0DA7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>59</xdr:row>
@@ -8402,151 +3959,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8571763F-9011-97CF-C6A4-E83843150B22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09868F5-237A-53C8-C37B-D8EC10802079}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9420390C-449A-59C4-C973-3A04F62336F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1128660C-2367-93C7-6D9A-0894FC118631}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8818,10 +4231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P113"/>
+  <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="W99" sqref="W99:W102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9711,7 +5124,7 @@
         <v>28.329666666666668</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -9722,7 +5135,7 @@
         <v>29.501000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -9733,12 +5146,12 @@
         <v>26.859000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H83" t="s">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W83" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>13</v>
       </c>
@@ -9760,20 +5173,63 @@
       <c r="G84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V84" s="2"/>
+      <c r="W84" t="s">
         <v>9</v>
       </c>
-      <c r="I84" t="s">
+      <c r="X84" t="s">
         <v>10</v>
       </c>
-      <c r="J84" t="s">
+      <c r="Y84" t="s">
         <v>11</v>
       </c>
-      <c r="K84" t="s">
+      <c r="Z84" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>50</v>
       </c>
@@ -9795,24 +5251,66 @@
       <c r="G85" s="2">
         <v>13.048999999999999</v>
       </c>
-      <c r="H85">
-        <f>AVERAGE(D85,F85,B85)</f>
-        <v>69.333333333333329</v>
+      <c r="H85" s="2">
+        <v>34</v>
       </c>
       <c r="I85">
-        <f>MIN(B85,D85,F85)</f>
+        <v>10.295999999999999</v>
+      </c>
+      <c r="J85" s="2">
+        <v>68</v>
+      </c>
+      <c r="K85">
+        <v>12.247</v>
+      </c>
+      <c r="L85">
+        <v>60</v>
+      </c>
+      <c r="M85">
+        <v>11.657999999999999</v>
+      </c>
+      <c r="N85">
+        <v>42</v>
+      </c>
+      <c r="O85">
+        <v>11.505000000000001</v>
+      </c>
+      <c r="P85">
         <v>64</v>
       </c>
-      <c r="J85">
-        <f>MAX(B85,D85,F85)</f>
+      <c r="Q85">
+        <v>19.356999999999999</v>
+      </c>
+      <c r="R85">
         <v>74</v>
       </c>
-      <c r="K85">
-        <f>STDEV(B85,D85,F85)/SQRT(COUNT(B85,D85,F85))</f>
-        <v>2.9059326290271157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S85">
+        <v>11.788</v>
+      </c>
+      <c r="T85">
+        <v>80</v>
+      </c>
+      <c r="U85">
+        <v>14.097</v>
+      </c>
+      <c r="W85">
+        <f t="shared" ref="W85" si="7">AVERAGE(D85,F85,B85,H85,J85,L85,N85,P85,R85,T85,V85)</f>
+        <v>63</v>
+      </c>
+      <c r="X85">
+        <f t="shared" ref="X85" si="8">MIN(B85,D85,F85,H85,J85,L85,N85,P85,R85,T85)</f>
+        <v>34</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" ref="Y85" si="9">MAX(B85,D85,F85,H85,J85,L85,N85,P85,R85,T85)</f>
+        <v>80</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" ref="Z85" si="10">STDEV(D85,F85,B85,H85,J85,L85,N85,P85,R85,T85,V85)/SQRT(COUNT(D85,F85,B85,H85,J85,L85,N85,P85,R85,T85,V85))</f>
+        <v>4.5922640264785395</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>75</v>
       </c>
@@ -9834,24 +5332,66 @@
       <c r="G86" s="2">
         <v>10.284000000000001</v>
       </c>
-      <c r="H86">
-        <f>AVERAGE(D86,F86,B86)</f>
-        <v>80.666666666666671</v>
+      <c r="H86" s="2">
+        <v>84</v>
       </c>
       <c r="I86">
-        <f>MIN(B86,D86,F86)</f>
+        <v>12.997</v>
+      </c>
+      <c r="J86">
+        <v>84</v>
+      </c>
+      <c r="K86">
+        <v>14.331</v>
+      </c>
+      <c r="L86">
+        <v>84</v>
+      </c>
+      <c r="M86">
+        <v>14.111000000000001</v>
+      </c>
+      <c r="N86">
+        <v>82</v>
+      </c>
+      <c r="O86">
+        <v>14.121</v>
+      </c>
+      <c r="P86">
         <v>68</v>
       </c>
-      <c r="J86">
-        <f>MAX(B86,D86,F86)</f>
+      <c r="Q86">
+        <v>12.331</v>
+      </c>
+      <c r="R86">
+        <v>86</v>
+      </c>
+      <c r="S86">
+        <v>7.9770000000000003</v>
+      </c>
+      <c r="T86">
+        <v>82</v>
+      </c>
+      <c r="U86">
+        <v>14.612</v>
+      </c>
+      <c r="W86">
+        <f t="shared" ref="W86:W91" si="11">AVERAGE(D86,F86,B86,H86,J86,L86,N86,P86,R86,T86,V86)</f>
+        <v>81.2</v>
+      </c>
+      <c r="X86">
+        <f t="shared" ref="X86:X91" si="12">MIN(B86,D86,F86,H86,J86,L86,N86,P86,R86,T86)</f>
+        <v>68</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" ref="Y86:Y91" si="13">MAX(B86,D86,F86,H86,J86,L86,N86,P86,R86,T86)</f>
         <v>88</v>
       </c>
-      <c r="K86">
-        <f t="shared" ref="K86:K91" si="7">STDEV(B86,D86,F86)/SQRT(COUNT(B86,D86,F86))</f>
-        <v>6.3595946761129865</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Z86">
+        <f t="shared" ref="Z86:Z91" si="14">STDEV(D86,F86,B86,H86,J86,L86,N86,P86,R86,T86,V86)/SQRT(COUNT(D86,F86,B86,H86,J86,L86,N86,P86,R86,T86,V86))</f>
+        <v>2.2744962812309302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>100</v>
       </c>
@@ -9873,24 +5413,66 @@
       <c r="G87" s="2">
         <v>11.122999999999999</v>
       </c>
-      <c r="H87">
-        <f t="shared" ref="H87:H91" si="8">AVERAGE(D87,F87,B87)</f>
-        <v>79.333333333333329</v>
+      <c r="H87" s="2">
+        <v>58</v>
       </c>
       <c r="I87">
-        <f t="shared" ref="I87:I91" si="9">MIN(B87,D87,F87)</f>
+        <v>12.427</v>
+      </c>
+      <c r="J87">
+        <v>92</v>
+      </c>
+      <c r="K87">
+        <v>11.084</v>
+      </c>
+      <c r="L87">
+        <v>78</v>
+      </c>
+      <c r="M87">
+        <v>11.685</v>
+      </c>
+      <c r="N87">
+        <v>96</v>
+      </c>
+      <c r="O87">
+        <v>9.93</v>
+      </c>
+      <c r="P87">
+        <v>92</v>
+      </c>
+      <c r="Q87">
+        <v>11.596</v>
+      </c>
+      <c r="R87">
         <v>68</v>
       </c>
-      <c r="J87">
-        <f t="shared" ref="J87:J91" si="10">MAX(B87,D87,F87)</f>
-        <v>86</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="7"/>
-        <v>5.6960024968783722</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S87">
+        <v>12.382</v>
+      </c>
+      <c r="T87">
+        <v>80</v>
+      </c>
+      <c r="U87">
+        <v>12.03</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="11"/>
+        <v>80.2</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="13"/>
+        <v>96</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="14"/>
+        <v>3.9038442591886242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>125</v>
       </c>
@@ -9912,24 +5494,66 @@
       <c r="G88" s="2">
         <v>10.666</v>
       </c>
-      <c r="H88">
-        <f t="shared" si="8"/>
-        <v>70.666666666666671</v>
+      <c r="H88" s="2">
+        <v>78</v>
       </c>
       <c r="I88">
-        <f t="shared" si="9"/>
-        <v>70</v>
+        <v>10.67</v>
       </c>
       <c r="J88">
-        <f t="shared" si="10"/>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K88">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+        <v>12.964</v>
+      </c>
+      <c r="L88">
+        <v>58</v>
+      </c>
+      <c r="M88">
+        <v>10.451000000000001</v>
+      </c>
+      <c r="N88">
+        <v>58</v>
+      </c>
+      <c r="O88">
+        <v>12.71</v>
+      </c>
+      <c r="P88">
+        <v>68</v>
+      </c>
+      <c r="Q88">
+        <v>12.744999999999999</v>
+      </c>
+      <c r="R88">
+        <v>86</v>
+      </c>
+      <c r="S88">
+        <v>12.305</v>
+      </c>
+      <c r="T88">
+        <v>52</v>
+      </c>
+      <c r="U88">
+        <v>17.033999999999999</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="11"/>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="13"/>
+        <v>86</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="14"/>
+        <v>3.5502738548518282</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>150</v>
       </c>
@@ -9951,24 +5575,66 @@
       <c r="G89" s="2">
         <v>13.026999999999999</v>
       </c>
-      <c r="H89">
-        <f t="shared" si="8"/>
-        <v>68.666666666666671</v>
+      <c r="H89" s="2">
+        <v>52</v>
       </c>
       <c r="I89">
-        <f t="shared" si="9"/>
+        <v>7.9109999999999996</v>
+      </c>
+      <c r="J89">
+        <v>78</v>
+      </c>
+      <c r="K89">
+        <v>13.419</v>
+      </c>
+      <c r="L89">
+        <v>80</v>
+      </c>
+      <c r="M89">
+        <v>8.8559999999999999</v>
+      </c>
+      <c r="N89">
         <v>60</v>
       </c>
-      <c r="J89">
-        <f t="shared" si="10"/>
+      <c r="O89">
+        <v>9.89</v>
+      </c>
+      <c r="P89">
+        <v>64</v>
+      </c>
+      <c r="Q89">
+        <v>10.265000000000001</v>
+      </c>
+      <c r="R89">
+        <v>78</v>
+      </c>
+      <c r="S89">
+        <v>12.509</v>
+      </c>
+      <c r="T89">
+        <v>48</v>
+      </c>
+      <c r="U89">
+        <v>10.835000000000001</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="11"/>
+        <v>66.599999999999994</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
-      <c r="K89">
-        <f t="shared" si="7"/>
-        <v>7.6883750631138579</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Z89">
+        <f t="shared" si="14"/>
+        <v>3.9670868124831591</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>175</v>
       </c>
@@ -9990,24 +5656,66 @@
       <c r="G90" s="2">
         <v>13.680999999999999</v>
       </c>
-      <c r="H90">
-        <f t="shared" si="8"/>
-        <v>63.333333333333336</v>
+      <c r="H90" s="2">
+        <v>82</v>
       </c>
       <c r="I90">
-        <f t="shared" si="9"/>
+        <v>11.364000000000001</v>
+      </c>
+      <c r="J90">
+        <v>86</v>
+      </c>
+      <c r="K90">
+        <v>0.86</v>
+      </c>
+      <c r="L90">
+        <v>60</v>
+      </c>
+      <c r="M90">
+        <v>14.375</v>
+      </c>
+      <c r="N90">
+        <v>76</v>
+      </c>
+      <c r="O90">
+        <v>10.175000000000001</v>
+      </c>
+      <c r="P90">
+        <v>86</v>
+      </c>
+      <c r="Q90">
+        <v>19.311</v>
+      </c>
+      <c r="R90">
+        <v>64</v>
+      </c>
+      <c r="S90">
+        <v>11.458</v>
+      </c>
+      <c r="T90">
+        <v>72</v>
+      </c>
+      <c r="U90">
+        <v>6.327</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="11"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
-      <c r="J90">
-        <f t="shared" si="10"/>
-        <v>70</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="7"/>
-        <v>4.0551750201988135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y90">
+        <f t="shared" si="13"/>
+        <v>86</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="14"/>
+        <v>3.3967304540952012</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>200</v>
       </c>
@@ -10029,24 +5737,66 @@
       <c r="G91" s="2">
         <v>12.819000000000001</v>
       </c>
-      <c r="H91">
-        <f t="shared" si="8"/>
-        <v>74.666666666666671</v>
+      <c r="H91" s="2">
+        <v>64</v>
       </c>
       <c r="I91">
-        <f t="shared" si="9"/>
-        <v>66</v>
+        <v>8.56</v>
       </c>
       <c r="J91">
-        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="K91">
+        <v>6.1020000000000003</v>
+      </c>
+      <c r="L91">
+        <v>84</v>
+      </c>
+      <c r="M91">
+        <v>5.6059999999999999</v>
+      </c>
+      <c r="N91">
+        <v>88</v>
+      </c>
+      <c r="O91">
+        <v>6.69</v>
+      </c>
+      <c r="P91">
+        <v>84</v>
+      </c>
+      <c r="Q91">
+        <v>7.19</v>
+      </c>
+      <c r="R91">
+        <v>76</v>
+      </c>
+      <c r="S91">
+        <v>5.7590000000000003</v>
+      </c>
+      <c r="T91">
+        <v>86</v>
+      </c>
+      <c r="U91">
+        <v>7.0720000000000001</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="11"/>
+        <v>78.8</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
-      <c r="K91">
-        <f t="shared" si="7"/>
-        <v>7.6883750631138774</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Z91">
+        <f t="shared" si="14"/>
+        <v>3.0433899228035508</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -10055,7 +5805,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -10063,11 +5813,11 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="M93" t="s">
+      <c r="W93" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
         <v>14</v>
@@ -10103,19 +5853,49 @@
         <v>1</v>
       </c>
       <c r="M94" t="s">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>2</v>
+      </c>
+      <c r="P94" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>2</v>
+      </c>
+      <c r="R94" t="s">
+        <v>1</v>
+      </c>
+      <c r="S94" t="s">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s">
+        <v>1</v>
+      </c>
+      <c r="U94" t="s">
+        <v>2</v>
+      </c>
+      <c r="V94" t="s">
+        <v>1</v>
+      </c>
+      <c r="W94" t="s">
         <v>9</v>
       </c>
-      <c r="N94" t="s">
+      <c r="X94" t="s">
         <v>10</v>
       </c>
-      <c r="O94" t="s">
+      <c r="Y94" t="s">
         <v>11</v>
       </c>
-      <c r="P94" t="s">
+      <c r="Z94" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>15</v>
       </c>
@@ -10152,24 +5932,24 @@
       <c r="L95">
         <v>11.795999999999999</v>
       </c>
-      <c r="M95">
-        <f>AVERAGE(C95,E95,G95,I95,K95)</f>
+      <c r="W95">
+        <f>AVERAGE(C95,E95,G95,I95,K95,M95,O95,Q95,S95,U95)</f>
         <v>98.4</v>
       </c>
-      <c r="N95">
-        <f>MIN(C95,E95,G95,I95,K95)</f>
+      <c r="X95">
+        <f>MIN(C95,E95,G95,I95,K95,M95,O95,Q95,S95,U95)</f>
         <v>94</v>
       </c>
-      <c r="O95">
-        <f>MAX(C95,E95,G95,I95,K95)</f>
-        <v>100</v>
-      </c>
-      <c r="P95">
-        <f>STDEV(G95,I95,K95,C95,E95)/SQRT(COUNT(G95,I95,K95,C95,E95))</f>
+      <c r="Y95">
+        <f>MAX(C95,E95,G95,I95,K95,M95,O95,Q95,S95,U95)</f>
+        <v>100</v>
+      </c>
+      <c r="Z95">
+        <f>STDEV(C95,E95,G95,I95,K95,M95,O95,Q95,S95,U95)/SQRT(COUNT(C95,E95,G95,I95,K95,M95,O95,Q95,S95,U95))</f>
         <v>1.16619037896906</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2">
         <v>1.5</v>
@@ -10204,24 +5984,24 @@
       <c r="L96">
         <v>8.4670000000000005</v>
       </c>
-      <c r="M96">
-        <f t="shared" ref="M96:M102" si="11">AVERAGE(C96,E96,G96,I96,K96)</f>
-        <v>100</v>
-      </c>
-      <c r="N96">
-        <f t="shared" ref="N96:N102" si="12">MIN(C96,E96,G96,I96,K96)</f>
-        <v>100</v>
-      </c>
-      <c r="O96">
-        <f t="shared" ref="O96:O102" si="13">MAX(C96,E96,G96,I96,K96)</f>
-        <v>100</v>
-      </c>
-      <c r="P96">
-        <f t="shared" ref="P96:P102" si="14">STDEV(G96,I96,K96,C96,E96)/SQRT(COUNT(G96,I96,K96,C96,E96))</f>
+      <c r="W96">
+        <f t="shared" ref="W96:W102" si="15">AVERAGE(C96,E96,G96,I96,K96,M96,O96,Q96,S96,U96)</f>
+        <v>100</v>
+      </c>
+      <c r="X96">
+        <f t="shared" ref="X96:X102" si="16">MIN(C96,E96,G96,I96,K96,M96,O96,Q96,S96,U96)</f>
+        <v>100</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" ref="Y96:Y102" si="17">MAX(C96,E96,G96,I96,K96,M96,O96,Q96,S96,U96)</f>
+        <v>100</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" ref="Z96:Z102" si="18">STDEV(C96,E96,G96,I96,K96,M96,O96,Q96,S96,U96)/SQRT(COUNT(C96,E96,G96,I96,K96,M96,O96,Q96,S96,U96))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2">
         <v>2</v>
@@ -10256,24 +6036,24 @@
       <c r="L97">
         <v>7.0819999999999999</v>
       </c>
-      <c r="M97">
-        <f t="shared" si="11"/>
+      <c r="W97">
+        <f t="shared" si="15"/>
         <v>98.8</v>
       </c>
-      <c r="N97">
-        <f t="shared" si="12"/>
+      <c r="X97">
+        <f t="shared" si="16"/>
         <v>98</v>
       </c>
-      <c r="O97">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="P97">
-        <f t="shared" si="14"/>
+      <c r="Y97">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="18"/>
         <v>0.48989794855663554</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2">
         <v>2.25</v>
@@ -10308,24 +6088,24 @@
       <c r="L98">
         <v>6.0819999999999999</v>
       </c>
-      <c r="M98">
-        <f t="shared" si="11"/>
+      <c r="W98" s="4">
+        <f t="shared" si="15"/>
         <v>99.6</v>
       </c>
-      <c r="N98">
-        <f t="shared" si="12"/>
+      <c r="X98" s="4">
+        <f t="shared" si="16"/>
         <v>98</v>
       </c>
-      <c r="O98">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="P98">
-        <f t="shared" si="14"/>
+      <c r="Y98" s="4">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="Z98" s="4">
+        <f t="shared" si="18"/>
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>16</v>
       </c>
@@ -10362,24 +6142,54 @@
       <c r="L99" s="1">
         <v>10.067</v>
       </c>
-      <c r="M99" s="1">
-        <f t="shared" si="11"/>
-        <v>85.6</v>
-      </c>
-      <c r="N99" s="1">
-        <f t="shared" si="12"/>
+      <c r="M99" s="6">
+        <v>82</v>
+      </c>
+      <c r="N99" s="6">
+        <v>8.6229999999999993</v>
+      </c>
+      <c r="O99" s="6">
+        <v>88</v>
+      </c>
+      <c r="P99">
+        <v>8.5489999999999995</v>
+      </c>
+      <c r="Q99">
+        <v>82</v>
+      </c>
+      <c r="R99">
+        <v>12.544</v>
+      </c>
+      <c r="S99">
+        <v>90</v>
+      </c>
+      <c r="T99">
+        <v>7.9050000000000002</v>
+      </c>
+      <c r="U99">
+        <v>82</v>
+      </c>
+      <c r="V99">
+        <v>9.2970000000000006</v>
+      </c>
+      <c r="W99" s="5">
+        <f>AVERAGE(C99,E99,G99,I99,K99,M99,O99,Q99,S99,U99)</f>
+        <v>85.2</v>
+      </c>
+      <c r="X99" s="5">
+        <f>MIN(C99,E99,G99,I99,K99,M99,O99,Q99,S99,U99)</f>
         <v>72</v>
       </c>
-      <c r="O99" s="1">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="P99">
-        <f t="shared" si="14"/>
-        <v>4.4899888641287138</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y99" s="5">
+        <f>MAX(C99,E99,G99,I99,K99,M99,O99,Q99,S99,U99)</f>
+        <v>100</v>
+      </c>
+      <c r="Z99" s="5">
+        <f>STDEV(C99,E99,G99,I99,K99,M99,O99,Q99,S99,U99)/SQRT(COUNT(C99,E99,G99,I99,K99,M99,O99,Q99,S99,U99))</f>
+        <v>2.2744962812309302</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2">
         <v>1.5</v>
@@ -10415,23 +6225,53 @@
         <v>7.1749999999999998</v>
       </c>
       <c r="M100">
-        <f t="shared" si="11"/>
-        <v>87.6</v>
+        <v>98</v>
       </c>
       <c r="N100">
-        <f t="shared" si="12"/>
-        <v>74</v>
+        <v>6.8319999999999999</v>
       </c>
       <c r="O100">
-        <f t="shared" si="13"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P100">
-        <f t="shared" si="14"/>
-        <v>5.6356011214421349</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+        <v>7.2519999999999998</v>
+      </c>
+      <c r="Q100">
+        <v>72</v>
+      </c>
+      <c r="R100">
+        <v>7.3970000000000002</v>
+      </c>
+      <c r="S100">
+        <v>90</v>
+      </c>
+      <c r="T100">
+        <v>10.72</v>
+      </c>
+      <c r="U100">
+        <v>86</v>
+      </c>
+      <c r="V100">
+        <v>7.3390000000000004</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="16"/>
+        <v>72</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="Z100">
+        <f t="shared" si="18"/>
+        <v>3.4383458555273672</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2">
         <v>2</v>
@@ -10467,23 +6307,53 @@
         <v>6.0339999999999998</v>
       </c>
       <c r="M101">
-        <f t="shared" si="11"/>
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="N101">
-        <f t="shared" si="12"/>
-        <v>98</v>
+        <v>5.9119999999999999</v>
       </c>
       <c r="O101">
-        <f t="shared" si="13"/>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P101">
-        <f t="shared" si="14"/>
-        <v>0.48989794855663554</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6.5350000000000001</v>
+      </c>
+      <c r="Q101">
+        <v>94</v>
+      </c>
+      <c r="R101">
+        <v>7.0579999999999998</v>
+      </c>
+      <c r="S101">
+        <v>96</v>
+      </c>
+      <c r="T101">
+        <v>6.7110000000000003</v>
+      </c>
+      <c r="U101">
+        <v>96</v>
+      </c>
+      <c r="V101">
+        <v>6.5940000000000003</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="15"/>
+        <v>95.2</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="16"/>
+        <v>72</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" si="18"/>
+        <v>2.6532998322843198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2">
         <v>2.25</v>
@@ -10519,23 +6389,53 @@
         <v>5.5039999999999996</v>
       </c>
       <c r="M102">
-        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="N102">
+        <v>5.8380000000000001</v>
+      </c>
+      <c r="O102">
+        <v>98</v>
+      </c>
+      <c r="P102">
+        <v>5.9640000000000004</v>
+      </c>
+      <c r="Q102">
+        <v>96</v>
+      </c>
+      <c r="R102">
+        <v>6.016</v>
+      </c>
+      <c r="S102">
+        <v>98</v>
+      </c>
+      <c r="T102">
+        <v>6.7530000000000001</v>
+      </c>
+      <c r="U102">
+        <v>90</v>
+      </c>
+      <c r="V102">
+        <v>6.4009999999999998</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="15"/>
         <v>96.4</v>
       </c>
-      <c r="N102">
-        <f t="shared" si="12"/>
-        <v>92</v>
-      </c>
-      <c r="O102">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="P102">
-        <f t="shared" si="14"/>
-        <v>1.4696938456699069</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X102">
+        <f t="shared" si="16"/>
+        <v>90</v>
+      </c>
+      <c r="Y102">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="Z102">
+        <f t="shared" si="18"/>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10544,7 +6444,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>6</v>
       </c>
@@ -10555,7 +6455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -10590,19 +6490,49 @@
         <v>1</v>
       </c>
       <c r="L106" t="s">
+        <v>2</v>
+      </c>
+      <c r="M106" t="s">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>1</v>
+      </c>
+      <c r="P106" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>1</v>
+      </c>
+      <c r="R106" t="s">
+        <v>2</v>
+      </c>
+      <c r="S106" t="s">
+        <v>1</v>
+      </c>
+      <c r="T106" t="s">
+        <v>2</v>
+      </c>
+      <c r="U106" t="s">
+        <v>1</v>
+      </c>
+      <c r="W106" t="s">
         <v>9</v>
       </c>
-      <c r="M106" t="s">
+      <c r="X106" t="s">
         <v>10</v>
       </c>
-      <c r="N106" t="s">
+      <c r="Y106" t="s">
         <v>11</v>
       </c>
-      <c r="O106" t="s">
+      <c r="Z106" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1E-3</v>
       </c>
@@ -10637,23 +6567,53 @@
         <v>13.532999999999999</v>
       </c>
       <c r="L107">
-        <f>AVERAGE(B107,D107,F107,H107,J107)</f>
-        <v>99.6</v>
+        <v>98</v>
       </c>
       <c r="M107">
-        <f>MIN(B107,D107,F107,H107,J107)</f>
+        <v>12.106</v>
+      </c>
+      <c r="N107">
+        <v>100</v>
+      </c>
+      <c r="O107">
+        <v>15.750999999999999</v>
+      </c>
+      <c r="P107">
+        <v>100</v>
+      </c>
+      <c r="Q107">
+        <v>15.839</v>
+      </c>
+      <c r="R107">
+        <v>100</v>
+      </c>
+      <c r="S107">
+        <v>11.919</v>
+      </c>
+      <c r="T107">
+        <v>100</v>
+      </c>
+      <c r="U107">
+        <v>14.414</v>
+      </c>
+      <c r="W107">
+        <f>AVERAGE(B107,D107,F107,H107,J107,N106,N107,P107,R107,T107)</f>
+        <v>99.777777777777771</v>
+      </c>
+      <c r="X107">
+        <f t="shared" ref="X107:X108" si="19">MIN(B107,D107,F107,H107,J107,P105,R105,P107,R107,T107)</f>
         <v>98</v>
       </c>
-      <c r="N107">
-        <f>MAX(B107,D107,F107,H107,J107)</f>
-        <v>100</v>
-      </c>
-      <c r="O107">
-        <f>STDEV(F107,H107,J107,D107,B107)/SQRT(COUNT(F107,H107,J107,D107,B107))</f>
-        <v>0.39999999999999997</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y107">
+        <f t="shared" ref="Y107:Y108" si="20">MAX(B107,D107,F107,H107,J107,P105,R105,P107,R107,T107)</f>
+        <v>100</v>
+      </c>
+      <c r="Z107">
+        <f t="shared" ref="Z107:Z108" si="21">STDEV(B107,D107,F107,H107,J107,P105,R105,P107,R107,T107)/SQRT(COUNT(B107,D107,F107,H107,J107,P105,R105,P107,R107,T107))</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -10688,23 +6648,53 @@
         <v>12.461</v>
       </c>
       <c r="L108">
-        <f t="shared" ref="L108:L113" si="15">AVERAGE(B108,D108,F108,H108,J108)</f>
-        <v>96.8</v>
+        <v>100</v>
       </c>
       <c r="M108">
-        <f t="shared" ref="M108:M113" si="16">MIN(B108,D108,F108,H108,J108)</f>
+        <v>12.98</v>
+      </c>
+      <c r="N108">
+        <v>100</v>
+      </c>
+      <c r="O108">
+        <v>14.085000000000001</v>
+      </c>
+      <c r="P108">
+        <v>100</v>
+      </c>
+      <c r="Q108">
+        <v>13.738</v>
+      </c>
+      <c r="R108">
+        <v>100</v>
+      </c>
+      <c r="S108">
+        <v>13.8</v>
+      </c>
+      <c r="T108">
+        <v>100</v>
+      </c>
+      <c r="U108">
+        <v>11.87</v>
+      </c>
+      <c r="W108">
+        <f>AVERAGE(B108,D108,F108,H108,J108,N107,N108,P108,R108,T108)</f>
+        <v>98.4</v>
+      </c>
+      <c r="X108">
+        <f t="shared" si="19"/>
         <v>92</v>
       </c>
-      <c r="N108">
-        <f t="shared" ref="N108:N113" si="17">MAX(B108,D108,F108,H108,J108)</f>
-        <v>100</v>
-      </c>
-      <c r="O108">
-        <f t="shared" ref="O108:O113" si="18">STDEV(F108,H108,J108,D108,B108)/SQRT(COUNT(F108,H108,J108,D108,B108))</f>
-        <v>1.3564659966250534</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y108">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+      <c r="Z108">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -10739,23 +6729,53 @@
         <v>12.12</v>
       </c>
       <c r="L109">
-        <f t="shared" si="15"/>
-        <v>97.6</v>
+        <v>100</v>
       </c>
       <c r="M109">
-        <f t="shared" si="16"/>
+        <v>12.59</v>
+      </c>
+      <c r="N109">
+        <v>98</v>
+      </c>
+      <c r="O109">
+        <v>11.055</v>
+      </c>
+      <c r="P109">
+        <v>98</v>
+      </c>
+      <c r="Q109">
+        <v>13.654999999999999</v>
+      </c>
+      <c r="R109">
+        <v>100</v>
+      </c>
+      <c r="S109">
+        <v>10.776999999999999</v>
+      </c>
+      <c r="T109">
+        <v>98</v>
+      </c>
+      <c r="U109">
+        <v>11.143000000000001</v>
+      </c>
+      <c r="W109">
+        <f>AVERAGE(B109,D109,F109,H109,J109,P107,R107,P109,R109,T109)</f>
+        <v>98.4</v>
+      </c>
+      <c r="X109">
+        <f>MIN(B109,D109,F109,H109,J109,P107,R107,P109,R109,T109)</f>
         <v>92</v>
       </c>
-      <c r="N109">
-        <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="O109">
-        <f t="shared" si="18"/>
-        <v>1.4696938456699069</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y109">
+        <f>MAX(B109,D109,F109,H109,J109,P107,R107,P109,R109,T109)</f>
+        <v>100</v>
+      </c>
+      <c r="Z109">
+        <f>STDEV(B109,D109,F109,H109,J109,P107,R107,P109,R109,T109)/SQRT(COUNT(B109,D109,F109,H109,J109,P107,R107,P109,R109,T109))</f>
+        <v>0.77746025264603991</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0.01</v>
       </c>
@@ -10790,23 +6810,53 @@
         <v>10.500999999999999</v>
       </c>
       <c r="L110">
-        <f t="shared" si="15"/>
-        <v>82.8</v>
+        <v>80</v>
       </c>
       <c r="M110">
-        <f t="shared" si="16"/>
+        <v>17.378</v>
+      </c>
+      <c r="N110">
+        <v>92</v>
+      </c>
+      <c r="O110">
+        <v>12.395</v>
+      </c>
+      <c r="P110">
+        <v>84</v>
+      </c>
+      <c r="Q110">
+        <v>10.852</v>
+      </c>
+      <c r="R110">
         <v>64</v>
       </c>
-      <c r="N110">
-        <f t="shared" si="17"/>
+      <c r="S110">
+        <v>16.062000000000001</v>
+      </c>
+      <c r="T110">
+        <v>60</v>
+      </c>
+      <c r="U110">
+        <v>11.542999999999999</v>
+      </c>
+      <c r="W110">
+        <f t="shared" ref="W110:W112" si="22">AVERAGE(B110,D110,F110,H110,J110,L110,N110,P110,R110,T110)</f>
+        <v>79.400000000000006</v>
+      </c>
+      <c r="X110">
+        <f t="shared" ref="X110:X112" si="23">MIN(B110,D110,F110,H110,J110,L110,N110,P110,R110,T110)</f>
+        <v>60</v>
+      </c>
+      <c r="Y110">
+        <f t="shared" ref="Y110:Y112" si="24">MAX(B110,D110,F110,H110,J110,L110,N110,P110,R110,T110)</f>
         <v>96</v>
       </c>
-      <c r="O110">
-        <f t="shared" si="18"/>
-        <v>5.7827329179203968</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Z110">
+        <f t="shared" ref="Z110:Z112" si="25">STDEV(B110,D110,F110,H110,J110,L110,N110,P110,R110,T110)/SQRT(COUNT(B110,D110,F110,H110,J110,L110,N110,P110,R110,T110))</f>
+        <v>4.1101500378128959</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -10841,23 +6891,53 @@
         <v>13.000999999999999</v>
       </c>
       <c r="L111">
-        <f t="shared" si="15"/>
-        <v>54.8</v>
+        <v>26</v>
       </c>
       <c r="M111">
-        <f t="shared" si="16"/>
-        <v>44</v>
+        <v>9.4090000000000007</v>
       </c>
       <c r="N111">
-        <f t="shared" si="17"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O111">
-        <f t="shared" si="18"/>
-        <v>3.6660605559646666</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+        <v>13.061</v>
+      </c>
+      <c r="P111">
+        <v>84</v>
+      </c>
+      <c r="Q111">
+        <v>14.393000000000001</v>
+      </c>
+      <c r="R111">
+        <v>80</v>
+      </c>
+      <c r="S111">
+        <v>10.75</v>
+      </c>
+      <c r="T111">
+        <v>58</v>
+      </c>
+      <c r="U111">
+        <v>17.427</v>
+      </c>
+      <c r="W111">
+        <f t="shared" si="22"/>
+        <v>59.2</v>
+      </c>
+      <c r="X111">
+        <f t="shared" si="23"/>
+        <v>26</v>
+      </c>
+      <c r="Y111">
+        <f t="shared" si="24"/>
+        <v>84</v>
+      </c>
+      <c r="Z111">
+        <f t="shared" si="25"/>
+        <v>5.4094567400268758</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0.02</v>
       </c>
@@ -10892,23 +6972,53 @@
         <v>11.069000000000001</v>
       </c>
       <c r="L112">
-        <f t="shared" si="15"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M112">
-        <f t="shared" si="16"/>
+        <v>12.465</v>
+      </c>
+      <c r="N112">
+        <v>54</v>
+      </c>
+      <c r="O112">
+        <v>8.9559999999999995</v>
+      </c>
+      <c r="P112">
+        <v>28</v>
+      </c>
+      <c r="Q112">
+        <v>9.3140000000000001</v>
+      </c>
+      <c r="R112">
+        <v>34</v>
+      </c>
+      <c r="S112">
+        <v>12.587</v>
+      </c>
+      <c r="T112">
+        <v>46</v>
+      </c>
+      <c r="U112">
+        <v>10.86</v>
+      </c>
+      <c r="W112">
+        <f t="shared" si="22"/>
+        <v>39</v>
+      </c>
+      <c r="X112">
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
-      <c r="N112">
-        <f t="shared" si="17"/>
+      <c r="Y112">
+        <f t="shared" si="24"/>
         <v>60</v>
       </c>
-      <c r="O112">
-        <f t="shared" si="18"/>
-        <v>7.7201036262475125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Z112">
+        <f t="shared" si="25"/>
+        <v>4.3944409327138656</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10943,20 +7053,50 @@
         <v>5.59</v>
       </c>
       <c r="L113">
-        <f t="shared" si="15"/>
-        <v>18.8</v>
+        <v>38</v>
       </c>
       <c r="M113">
-        <f t="shared" si="16"/>
+        <v>7.1909999999999998</v>
+      </c>
+      <c r="N113">
+        <v>34</v>
+      </c>
+      <c r="O113">
+        <v>10.279</v>
+      </c>
+      <c r="P113">
+        <v>50</v>
+      </c>
+      <c r="Q113">
+        <v>7.6680000000000001</v>
+      </c>
+      <c r="R113">
+        <v>42</v>
+      </c>
+      <c r="S113">
+        <v>8.6959999999999997</v>
+      </c>
+      <c r="T113">
+        <v>36</v>
+      </c>
+      <c r="U113">
+        <v>9.8030000000000008</v>
+      </c>
+      <c r="W113">
+        <f>AVERAGE(B113,D113,F113,H113,J113,L113,N113,P113,R113,T113)</f>
+        <v>29.4</v>
+      </c>
+      <c r="X113">
+        <f>MIN(B113,D113,F113,H113,J113,L113,N113,P113,R113,T113)</f>
         <v>8</v>
       </c>
-      <c r="N113">
-        <f t="shared" si="17"/>
-        <v>34</v>
-      </c>
-      <c r="O113">
-        <f t="shared" si="18"/>
-        <v>4.4090815370097198</v>
+      <c r="Y113">
+        <f>MAX(B113,D113,F113,H113,J113,L113,N113,P113,R113,T113)</f>
+        <v>50</v>
+      </c>
+      <c r="Z113">
+        <f>STDEV(B113,D113,F113,H113,J113,L113,N113,P113,R113,T113)/SQRT(COUNT(B113,D113,F113,H113,J113,L113,N113,P113,R113,T113))</f>
+        <v>4.3107101760872553</v>
       </c>
     </row>
   </sheetData>
